--- a/processed_users.xlsx
+++ b/processed_users.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1996-5-30</t>
+          <t>30/05/1996</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1989-8-10</t>
+          <t>10/08/1989</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1982-11-6</t>
+          <t>06/11/1982</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1979-5-4</t>
+          <t>04/05/1979</t>
         </is>
       </c>
     </row>
